--- a/05_Entregable 3/previo/Dominio de Valores/DdV_07_MAATE_Consolidado trafico 2014_2019-1 FINAL.xlsx
+++ b/05_Entregable 3/previo/Dominio de Valores/DdV_07_MAATE_Consolidado trafico 2014_2019-1 FINAL.xlsx
@@ -6,21 +6,21 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="N°_Consolidado" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Provincia_Consolidado" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Cantón_Consolidado" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Parroquia_Consolidado" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Nacionalidad del infractor_Con" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Tipo de transporte_Consolidado" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Familia_Consolidado" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Nombre Científico_Consolidado" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="UICN_Consolidado" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="LISTA ROJA NACIONAL_Consolidad" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="CITES_Consolidado" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Sexo_Consolidado" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Etapa de vida_Consolidado" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Estado Físico_Consolidado" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Causal de retención_Consolidad" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="nro_registro_Consolidado" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="provincia_Consolidado" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="canton_Consolidado" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="parroquia_Consolidado" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="nacionalidad_infractor_Consoli" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="tipo_transporte_Consolidado" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="familia_Consolidado" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="nombre_cientifico_Consolidado" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="uicn_Consolidado" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="lista_roja_nacional_Consolidad" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="cites_Consolidado" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="sexo_Consolidado" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="etapa_de_vida_Consolidado" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="estado_fisico_Consolidado" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="causal_retencion_Consolidado" sheetId="15" state="visible" r:id="rId15"/>
   </sheets>
 </workbook>
 </file>
